--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pros1-Tyro3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H2">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I2">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J2">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N2">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O2">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P2">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q2">
-        <v>4.474729473209</v>
+        <v>7.889363773625998</v>
       </c>
       <c r="R2">
-        <v>17.898917892836</v>
+        <v>31.55745509450399</v>
       </c>
       <c r="S2">
-        <v>0.008855116546689442</v>
+        <v>0.01592225906006828</v>
       </c>
       <c r="T2">
-        <v>0.00464938789898621</v>
+        <v>0.00893396935906138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H3">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I3">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J3">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.183792</v>
       </c>
       <c r="O3">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P3">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q3">
-        <v>71.84593950646934</v>
+        <v>83.81681653288533</v>
       </c>
       <c r="R3">
-        <v>431.075637038816</v>
+        <v>502.900899197312</v>
       </c>
       <c r="S3">
-        <v>0.1421771241245426</v>
+        <v>0.1691585157840232</v>
       </c>
       <c r="T3">
-        <v>0.1119753642312776</v>
+        <v>0.1423721022692884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H4">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I4">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J4">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N4">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O4">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P4">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q4">
-        <v>12.6177434035305</v>
+        <v>20.111648058504</v>
       </c>
       <c r="R4">
-        <v>50.470973614122</v>
+        <v>80.44659223401599</v>
       </c>
       <c r="S4">
-        <v>0.02496946219060646</v>
+        <v>0.04058918813997641</v>
       </c>
       <c r="T4">
-        <v>0.01311024137752332</v>
+        <v>0.02277456746456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H5">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I5">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J5">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N5">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O5">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P5">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q5">
-        <v>1.418408323975</v>
+        <v>0.1523074057573333</v>
       </c>
       <c r="R5">
-        <v>8.51044994385</v>
+        <v>0.9138444345439998</v>
       </c>
       <c r="S5">
-        <v>0.002806911813282353</v>
+        <v>0.0003073857462806047</v>
       </c>
       <c r="T5">
-        <v>0.00221065782975077</v>
+        <v>0.0002587109179975271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H6">
         <v>196.916633</v>
       </c>
       <c r="I6">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J6">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N6">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O6">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P6">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q6">
-        <v>9.789447854084331</v>
+        <v>14.7946420122395</v>
       </c>
       <c r="R6">
-        <v>58.736687124506</v>
+        <v>88.76785207343701</v>
       </c>
       <c r="S6">
-        <v>0.01937250110753383</v>
+        <v>0.0298584435423467</v>
       </c>
       <c r="T6">
-        <v>0.01525732695005662</v>
+        <v>0.02513033031715843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H7">
         <v>196.916633</v>
       </c>
       <c r="I7">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J7">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>7.183792</v>
       </c>
       <c r="O7">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P7">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q7">
         <v>157.1786814235929</v>
@@ -889,10 +889,10 @@
         <v>1414.608132812336</v>
       </c>
       <c r="S7">
-        <v>0.3110435057569518</v>
+        <v>0.3172169209274729</v>
       </c>
       <c r="T7">
-        <v>0.367455841402435</v>
+        <v>0.400477975038788</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H8">
         <v>196.916633</v>
       </c>
       <c r="I8">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J8">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N8">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O8">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P8">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q8">
-        <v>27.60406898888949</v>
+        <v>37.714655051958</v>
       </c>
       <c r="R8">
-        <v>165.624413933337</v>
+        <v>226.287930311748</v>
       </c>
       <c r="S8">
-        <v>0.05462615103839493</v>
+        <v>0.07611545434194039</v>
       </c>
       <c r="T8">
-        <v>0.04302227377815681</v>
+        <v>0.06406249900939134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H9">
         <v>196.916633</v>
       </c>
       <c r="I9">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J9">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N9">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O9">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P9">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q9">
-        <v>3.103077941691667</v>
+        <v>0.2856166363535556</v>
       </c>
       <c r="R9">
-        <v>27.927701475225</v>
+        <v>2.570549727182</v>
       </c>
       <c r="S9">
-        <v>0.006140732527330927</v>
+        <v>0.0005764295076732777</v>
       </c>
       <c r="T9">
-        <v>0.007254445104604971</v>
+        <v>0.0007277270118840214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H10">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I10">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J10">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N10">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O10">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P10">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q10">
-        <v>2.003236955739333</v>
+        <v>3.217273880376</v>
       </c>
       <c r="R10">
-        <v>12.019421734436</v>
+        <v>19.303643282256</v>
       </c>
       <c r="S10">
-        <v>0.003964238915427866</v>
+        <v>0.006493079754008339</v>
       </c>
       <c r="T10">
-        <v>0.003122141478020054</v>
+        <v>0.005464894335917514</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H11">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I11">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J11">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>7.183792</v>
       </c>
       <c r="O11">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P11">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q11">
-        <v>32.16383068537956</v>
+        <v>34.18040570888534</v>
       </c>
       <c r="R11">
-        <v>289.474476168416</v>
+        <v>307.6236513799681</v>
       </c>
       <c r="S11">
-        <v>0.06364953926539178</v>
+        <v>0.06898265691518217</v>
       </c>
       <c r="T11">
-        <v>0.07519332367581229</v>
+        <v>0.08708878036333972</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H12">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I12">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J12">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N12">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O12">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P12">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q12">
-        <v>5.648683352887</v>
+        <v>8.201507985504001</v>
       </c>
       <c r="R12">
-        <v>33.892100117322</v>
+        <v>49.20904791302401</v>
       </c>
       <c r="S12">
-        <v>0.01117827339610942</v>
+        <v>0.01655222633604016</v>
       </c>
       <c r="T12">
-        <v>0.008803745628654793</v>
+        <v>0.01393116539109345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H13">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I13">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J13">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N13">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O13">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P13">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q13">
-        <v>0.6349898893166668</v>
+        <v>0.06211079275733333</v>
       </c>
       <c r="R13">
-        <v>5.714909003850001</v>
+        <v>0.558997134816</v>
       </c>
       <c r="S13">
-        <v>0.001256592048644252</v>
+        <v>0.0001253515696683295</v>
       </c>
       <c r="T13">
-        <v>0.001484493583656386</v>
+        <v>0.0001582530422460779</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H14">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I14">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J14">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N14">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O14">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P14">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q14">
-        <v>2.7741489969975</v>
+        <v>6.34137159030525</v>
       </c>
       <c r="R14">
-        <v>11.09659598799</v>
+        <v>25.365486361221</v>
       </c>
       <c r="S14">
-        <v>0.005489809570248205</v>
+        <v>0.01279811200930229</v>
       </c>
       <c r="T14">
-        <v>0.002882430067303084</v>
+        <v>0.007181012450154912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H15">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I15">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J15">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.183792</v>
       </c>
       <c r="O15">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P15">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q15">
-        <v>44.54153982124</v>
+        <v>67.370905234248</v>
       </c>
       <c r="R15">
-        <v>267.24923892744</v>
+        <v>404.225431405488</v>
       </c>
       <c r="S15">
-        <v>0.08814399365314814</v>
+        <v>0.1359674920602614</v>
       </c>
       <c r="T15">
-        <v>0.06942013952585592</v>
+        <v>0.1144369090446379</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H16">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I16">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J16">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N16">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O16">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P16">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q16">
-        <v>7.82248411146375</v>
+        <v>16.165490309721</v>
       </c>
       <c r="R16">
-        <v>31.289936445855</v>
+        <v>64.66196123888399</v>
       </c>
       <c r="S16">
-        <v>0.01548004385658703</v>
+        <v>0.03262508003558602</v>
       </c>
       <c r="T16">
-        <v>0.008127812683560802</v>
+        <v>0.01830591150886605</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H17">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I17">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J17">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N17">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O17">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P17">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q17">
-        <v>0.8793550655625001</v>
+        <v>0.122422781301</v>
       </c>
       <c r="R17">
-        <v>5.276130393375</v>
+        <v>0.7345366878059999</v>
       </c>
       <c r="S17">
-        <v>0.001740170358476099</v>
+        <v>0.0002470728051918334</v>
       </c>
       <c r="T17">
-        <v>0.001370517310113449</v>
+        <v>0.000207948589083412</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H18">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I18">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J18">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N18">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O18">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P18">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q18">
-        <v>3.533652795742666</v>
+        <v>0.5079808258245</v>
       </c>
       <c r="R18">
-        <v>21.201916774456</v>
+        <v>3.047884954947</v>
       </c>
       <c r="S18">
-        <v>0.0069928042642981</v>
+        <v>0.001025203367268198</v>
       </c>
       <c r="T18">
-        <v>0.005507368427335109</v>
+        <v>0.0008628614289681097</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H19">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I19">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J19">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>7.183792</v>
       </c>
       <c r="O19">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P19">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q19">
-        <v>56.73607902328178</v>
+        <v>5.396802188624</v>
       </c>
       <c r="R19">
-        <v>510.624711209536</v>
+        <v>48.57121969761599</v>
       </c>
       <c r="S19">
-        <v>0.1122759700136796</v>
+        <v>0.01089178861677983</v>
       </c>
       <c r="T19">
-        <v>0.1326388761284373</v>
+        <v>0.01375059513548395</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H20">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I20">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J20">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N20">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O20">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P20">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q20">
-        <v>9.964116159602</v>
+        <v>1.294949996298</v>
       </c>
       <c r="R20">
-        <v>59.78469695761199</v>
+        <v>7.769699977788</v>
       </c>
       <c r="S20">
-        <v>0.01971815512117468</v>
+        <v>0.002613459070022679</v>
       </c>
       <c r="T20">
-        <v>0.01552955593424632</v>
+        <v>0.002199615315074851</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H21">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I21">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J21">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N21">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O21">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P21">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q21">
-        <v>1.120104035233333</v>
+        <v>0.009806778337999998</v>
       </c>
       <c r="R21">
-        <v>10.0809363171</v>
+        <v>0.08826100504199999</v>
       </c>
       <c r="S21">
-        <v>0.002216592496997423</v>
+        <v>1.979197178919488E-05</v>
       </c>
       <c r="T21">
-        <v>0.002618604297969042</v>
+        <v>2.498684105812188E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H22">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I22">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J22">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.149141</v>
+        <v>0.2253945</v>
       </c>
       <c r="N22">
-        <v>0.298282</v>
+        <v>0.450789</v>
       </c>
       <c r="O22">
-        <v>0.0495228742909193</v>
+        <v>0.07045953565491116</v>
       </c>
       <c r="P22">
-        <v>0.03523714386836697</v>
+        <v>0.05124470957648078</v>
       </c>
       <c r="Q22">
-        <v>2.450029387591333</v>
+        <v>2.1615563203705</v>
       </c>
       <c r="R22">
-        <v>14.700176325548</v>
+        <v>12.969337922223</v>
       </c>
       <c r="S22">
-        <v>0.004848403886721867</v>
+        <v>0.004362437921917353</v>
       </c>
       <c r="T22">
-        <v>0.003818489046665893</v>
+        <v>0.003671641685220442</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H23">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I23">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J23">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>7.183792</v>
       </c>
       <c r="O23">
-        <v>0.7951357622386686</v>
+        <v>0.7485640341142095</v>
       </c>
       <c r="P23">
-        <v>0.8486476295063855</v>
+        <v>0.8166377943957063</v>
       </c>
       <c r="Q23">
-        <v>39.33749832785422</v>
+        <v>22.96443347379378</v>
       </c>
       <c r="R23">
-        <v>354.037484950688</v>
+        <v>206.679901264144</v>
       </c>
       <c r="S23">
-        <v>0.07784562942495458</v>
+        <v>0.04634665981049006</v>
       </c>
       <c r="T23">
-        <v>0.09196408454256734</v>
+        <v>0.05851143254416841</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H24">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I24">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J24">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.4205445</v>
+        <v>0.574578</v>
       </c>
       <c r="N24">
-        <v>0.841089</v>
+        <v>1.149156</v>
       </c>
       <c r="O24">
-        <v>0.1396435078699855</v>
+        <v>0.1796161799756762</v>
       </c>
       <c r="P24">
-        <v>0.09936092053526831</v>
+        <v>0.1306335458009631</v>
       </c>
       <c r="Q24">
-        <v>6.908538790740999</v>
+        <v>5.510261818482001</v>
       </c>
       <c r="R24">
-        <v>41.451232744446</v>
+        <v>33.061570910892</v>
       </c>
       <c r="S24">
-        <v>0.01367142226711303</v>
+        <v>0.01112077205211054</v>
       </c>
       <c r="T24">
-        <v>0.01076729113312627</v>
+        <v>0.009359787111977406</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H25">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I25">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J25">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.047275</v>
+        <v>0.004351333333333333</v>
       </c>
       <c r="N25">
-        <v>0.141825</v>
+        <v>0.013054</v>
       </c>
       <c r="O25">
-        <v>0.01569785560042651</v>
+        <v>0.001360250255203225</v>
       </c>
       <c r="P25">
-        <v>0.0167543060899791</v>
+        <v>0.001483950226849768</v>
       </c>
       <c r="Q25">
-        <v>0.7766150106166666</v>
+        <v>0.04172973195311111</v>
       </c>
       <c r="R25">
-        <v>6.98953509555</v>
+        <v>0.375567587578</v>
       </c>
       <c r="S25">
-        <v>0.001536856355695458</v>
+        <v>8.421865459998525E-05</v>
       </c>
       <c r="T25">
-        <v>0.001815587963884479</v>
+        <v>0.0001063238245806079</v>
       </c>
     </row>
   </sheetData>
